--- a/data/expt_2/raw_transcripts/game76.xlsx
+++ b/data/expt_2/raw_transcripts/game76.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="208">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -278,9 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">The boat.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id130</t>
   </si>
   <si>
     <t xml:space="preserve">the boat</t>
@@ -937,10 +934,10 @@
   </sheetPr>
   <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H164" activeCellId="0" sqref="H164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D200" activeCellId="0" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2034,7 +2031,7 @@
         <v>85</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>2</v>
@@ -2043,7 +2040,7 @@
         <v>65</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,7 +2065,7 @@
         <v>233820</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>74</v>
@@ -2080,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2091,10 +2088,10 @@
         <v>234820</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,7 +2116,7 @@
         <v>241820</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -2139,7 +2136,7 @@
         <v>242820</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -2156,7 +2153,7 @@
         <v>246820</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>9</v>
@@ -2170,7 +2167,7 @@
         <v>256820</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>9</v>
@@ -2184,7 +2181,7 @@
         <v>259820</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
@@ -2193,7 +2190,7 @@
         <v>65</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,7 +2201,7 @@
         <v>266820</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>9</v>
@@ -2218,7 +2215,7 @@
         <v>270820</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
@@ -2274,7 +2271,7 @@
         <v>282820</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>9</v>
@@ -2288,7 +2285,7 @@
         <v>287820</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>74</v>
@@ -2308,7 +2305,7 @@
         <v>290820</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>74</v>
@@ -2325,7 +2322,7 @@
         <v>292820</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>9</v>
@@ -2339,7 +2336,7 @@
         <v>305820</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>74</v>
@@ -2356,7 +2353,7 @@
         <v>307820</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>74</v>
@@ -2373,7 +2370,7 @@
         <v>309820</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>9</v>
@@ -2387,7 +2384,7 @@
         <v>314820</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>9</v>
@@ -2401,7 +2398,7 @@
         <v>316820</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>11</v>
@@ -2418,7 +2415,7 @@
         <v>318820</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>9</v>
@@ -2432,7 +2429,7 @@
         <v>320820</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>9</v>
@@ -2446,7 +2443,7 @@
         <v>325320</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>9</v>
@@ -2460,7 +2457,7 @@
         <v>330320</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>9</v>
@@ -2474,7 +2471,7 @@
         <v>334320</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>9</v>
@@ -2488,7 +2485,7 @@
         <v>337320</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>11</v>
@@ -2497,7 +2494,7 @@
         <v>75</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,7 +2505,7 @@
         <v>341320</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>74</v>
@@ -2517,7 +2514,7 @@
         <v>65</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,7 +2525,7 @@
         <v>344320</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
@@ -2542,7 +2539,7 @@
         <v>348320</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2553,7 @@
         <v>350320</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>9</v>
@@ -2570,7 +2567,7 @@
         <v>351920</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>9</v>
@@ -2584,7 +2581,7 @@
         <v>355020</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>11</v>
@@ -2596,7 +2593,7 @@
         <v>65</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,7 +2604,7 @@
         <v>366320</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>9</v>
@@ -2621,7 +2618,7 @@
         <v>369320</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>74</v>
@@ -2638,7 +2635,7 @@
         <v>371320</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>9</v>
@@ -2666,7 +2663,7 @@
         <v>376320</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>9</v>
@@ -2680,7 +2677,7 @@
         <v>383320</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>74</v>
@@ -2692,7 +2689,7 @@
         <v>65</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,10 +2700,10 @@
         <v>385320</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2717,7 +2714,7 @@
         <v>390320</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>11</v>
@@ -2729,7 +2726,7 @@
         <v>65</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2740,7 +2737,7 @@
         <v>396320</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>74</v>
@@ -2757,7 +2754,7 @@
         <v>400320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>9</v>
@@ -2771,10 +2768,10 @@
         <v>401320</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +2796,7 @@
         <v>407320</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
@@ -2819,7 +2816,7 @@
         <v>411320</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>74</v>
@@ -2828,7 +2825,7 @@
         <v>65</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,7 +2836,7 @@
         <v>414320</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
@@ -2856,7 +2853,7 @@
         <v>417320</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
@@ -2873,7 +2870,7 @@
         <v>418320</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>9</v>
@@ -2887,7 +2884,7 @@
         <v>419320</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>9</v>
@@ -2901,7 +2898,7 @@
         <v>421320</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -2918,7 +2915,7 @@
         <v>424320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -2935,7 +2932,7 @@
         <v>427320</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>9</v>
@@ -2949,7 +2946,7 @@
         <v>429320</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
@@ -2963,7 +2960,7 @@
         <v>430320</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>9</v>
@@ -2977,7 +2974,7 @@
         <v>432320</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>9</v>
@@ -2991,7 +2988,7 @@
         <v>436320</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>74</v>
@@ -3000,7 +2997,7 @@
         <v>65</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,7 +3008,7 @@
         <v>440320</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>74</v>
@@ -3020,7 +3017,7 @@
         <v>65</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,10 +3045,10 @@
         <v>443320</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3059,7 @@
         <v>445320</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>9</v>
@@ -3088,7 +3085,7 @@
         <v>65</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,7 +3096,7 @@
         <v>455320</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
@@ -3116,7 +3113,7 @@
         <v>458320</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>74</v>
@@ -3133,10 +3130,10 @@
         <v>460320</v>
       </c>
       <c r="C143" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,7 +3144,7 @@
         <v>461320</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>9</v>
@@ -3161,7 +3158,7 @@
         <v>466320</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -3181,7 +3178,7 @@
         <v>470320</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
@@ -3198,7 +3195,7 @@
         <v>473320</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
@@ -3215,7 +3212,7 @@
         <v>475320</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>11</v>
@@ -3232,7 +3229,7 @@
         <v>478320</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>9</v>
@@ -3246,7 +3243,7 @@
         <v>481320</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>74</v>
@@ -3255,7 +3252,7 @@
         <v>65</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,10 +3263,10 @@
         <v>483320</v>
       </c>
       <c r="C151" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3277,7 @@
         <v>486320</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
@@ -3292,7 +3289,7 @@
         <v>65</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3303,7 +3300,7 @@
         <v>489320</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>11</v>
@@ -3312,7 +3309,7 @@
         <v>65</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3323,10 +3320,10 @@
         <v>493320</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,7 +3334,7 @@
         <v>500320</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>11</v>
@@ -3357,7 +3354,7 @@
         <v>503320</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>9</v>
@@ -3371,7 +3368,7 @@
         <v>508320</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>9</v>
@@ -3385,7 +3382,7 @@
         <v>511320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>9</v>
@@ -3399,7 +3396,7 @@
         <v>519320</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>11</v>
@@ -3411,7 +3408,7 @@
         <v>65</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3419,7 @@
         <v>522320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>9</v>
@@ -3436,7 +3433,7 @@
         <v>523320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>9</v>
@@ -3450,7 +3447,7 @@
         <v>525320</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -3464,7 +3461,7 @@
         <v>529320</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>11</v>
@@ -3473,7 +3470,7 @@
         <v>65</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,7 +3481,7 @@
         <v>532320</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>74</v>
@@ -3518,7 +3515,7 @@
         <v>534320</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>9</v>
@@ -3549,7 +3546,7 @@
         <v>542320</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>74</v>
@@ -3566,7 +3563,7 @@
         <v>545320</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>9</v>
@@ -3580,7 +3577,7 @@
         <v>548320</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>9</v>
@@ -3608,7 +3605,7 @@
         <v>552320</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>9</v>
@@ -3636,7 +3633,7 @@
         <v>556320</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>11</v>
@@ -3656,7 +3653,7 @@
         <v>561320</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>9</v>
@@ -3670,7 +3667,7 @@
         <v>563320</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>11</v>
@@ -3687,7 +3684,7 @@
         <v>566320</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>9</v>
@@ -3701,7 +3698,7 @@
         <v>571320</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>11</v>
@@ -3718,7 +3715,7 @@
         <v>571320</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>74</v>
@@ -3727,7 +3724,7 @@
         <v>65</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,7 +3735,7 @@
         <v>578320</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>9</v>
@@ -3752,7 +3749,7 @@
         <v>580320</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>9</v>
@@ -3766,7 +3763,7 @@
         <v>581320</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>9</v>
@@ -3794,7 +3791,7 @@
         <v>590320</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>9</v>
@@ -3808,7 +3805,7 @@
         <v>592320</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>11</v>
@@ -3820,7 +3817,7 @@
         <v>65</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3831,7 +3828,7 @@
         <v>595320</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>74</v>
@@ -3865,7 +3862,7 @@
         <v>599320</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>11</v>
@@ -3896,7 +3893,7 @@
         <v>607320</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -3910,7 +3907,7 @@
         <v>609320</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -3938,7 +3935,7 @@
         <v>617320</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>11</v>
@@ -3958,7 +3955,7 @@
         <v>619320</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>11</v>
@@ -3975,7 +3972,7 @@
         <v>626320</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>74</v>
@@ -3984,7 +3981,7 @@
         <v>65</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,7 +3992,7 @@
         <v>630320</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>11</v>
@@ -4012,7 +4009,7 @@
         <v>633320</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>11</v>
@@ -4021,7 +4018,7 @@
         <v>75</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,7 +4049,7 @@
         <v>85</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E199" s="2" t="n">
         <v>18</v>
@@ -4061,7 +4058,7 @@
         <v>65</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +4069,7 @@
         <v>653320</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>74</v>
@@ -4089,7 +4086,7 @@
         <v>656320</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>11</v>
@@ -4106,7 +4103,7 @@
         <v>659320</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>9</v>
@@ -4120,7 +4117,7 @@
         <v>663320</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>11</v>
@@ -4140,7 +4137,7 @@
         <v>666320</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>11</v>
@@ -4157,7 +4154,7 @@
         <v>667320</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>9</v>
@@ -4171,7 +4168,7 @@
         <v>669320</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>11</v>
@@ -4188,7 +4185,7 @@
         <v>676320</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>9</v>
@@ -4202,7 +4199,7 @@
         <v>680320</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>74</v>
@@ -4211,7 +4208,7 @@
         <v>65</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,7 +4219,7 @@
         <v>686320</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>11</v>
@@ -4239,7 +4236,7 @@
         <v>690320</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -4253,7 +4250,7 @@
         <v>692320</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>11</v>
@@ -4270,7 +4267,7 @@
         <v>694320</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>9</v>
@@ -4284,7 +4281,7 @@
         <v>698320</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>9</v>
@@ -4298,7 +4295,7 @@
         <v>700320</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>9</v>
@@ -4312,7 +4309,7 @@
         <v>703320</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>74</v>
@@ -4326,7 +4323,7 @@
         <v>705320</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>9</v>
@@ -4340,7 +4337,7 @@
         <v>707320</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -4354,7 +4351,7 @@
         <v>709320</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>9</v>
@@ -4368,7 +4365,7 @@
         <v>712320</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>9</v>
@@ -4382,7 +4379,7 @@
         <v>715320</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>9</v>
@@ -4396,7 +4393,7 @@
         <v>716320</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>11</v>
@@ -4410,7 +4407,7 @@
         <v>720320</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>9</v>
@@ -4424,7 +4421,7 @@
         <v>721320</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>11</v>

--- a/data/expt_2/raw_transcripts/game76.xlsx
+++ b/data/expt_2/raw_transcripts/game76.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="210">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Okay.</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">And [id140], you're gonna guess, okay?</t>
@@ -726,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -740,6 +746,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -932,12 +942,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D200" activeCellId="0" sqref="D200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -970,6 +980,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -979,10 +992,10 @@
         <v>2000</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,10 +1006,10 @@
         <v>5000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,10 +1020,10 @@
         <v>10000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,10 +1034,10 @@
         <v>11000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1035,10 +1048,10 @@
         <v>13000</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,10 +1062,10 @@
         <v>23000</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,10 +1076,10 @@
         <v>26000</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,10 +1090,10 @@
         <v>27000</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,10 +1104,10 @@
         <v>36000</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,10 +1118,10 @@
         <v>38000</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,10 +1132,10 @@
         <v>41000</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1133,10 +1146,10 @@
         <v>47000</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,10 +1160,10 @@
         <v>50000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,10 +1174,10 @@
         <v>53000</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1175,10 +1188,10 @@
         <v>56000</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,10 +1202,10 @@
         <v>57000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1203,10 +1216,10 @@
         <v>59000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1217,10 +1230,10 @@
         <v>61000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,10 +1244,10 @@
         <v>65000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1245,10 +1258,10 @@
         <v>67000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,10 +1272,10 @@
         <v>70000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,10 +1286,10 @@
         <v>72000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,10 +1300,10 @@
         <v>77000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,10 +1314,10 @@
         <v>81000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,10 +1328,10 @@
         <v>84000</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,10 +1342,10 @@
         <v>86000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,10 +1356,10 @@
         <v>88000</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,10 +1370,10 @@
         <v>91000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,10 +1384,10 @@
         <v>92000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,10 +1398,10 @@
         <v>98000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,10 +1412,10 @@
         <v>102000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,10 +1426,10 @@
         <v>103000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,10 +1440,10 @@
         <v>110000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,10 +1454,10 @@
         <v>115000</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,10 +1468,10 @@
         <v>116000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,10 +1482,10 @@
         <v>117600</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,10 +1496,10 @@
         <v>119880</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,10 +1510,10 @@
         <v>121760</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,10 +1524,10 @@
         <v>124900</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,10 +1538,10 @@
         <v>125780</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,10 +1552,10 @@
         <v>127680</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,10 +1566,10 @@
         <v>129240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,10 +1580,10 @@
         <v>132040</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1581,10 +1594,10 @@
         <v>135920</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,10 +1608,10 @@
         <v>137800</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,10 +1622,10 @@
         <v>140080</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,10 +1636,10 @@
         <v>141620</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,10 +1650,10 @@
         <v>145800</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,10 +1664,10 @@
         <v>147520</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1665,10 +1678,10 @@
         <v>149840</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1679,10 +1692,10 @@
         <v>151780</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,10 +1706,10 @@
         <v>152240</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,10 +1720,10 @@
         <v>154200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1721,10 +1734,10 @@
         <v>154840</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,10 +1748,10 @@
         <v>158480</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,10 +1762,10 @@
         <v>161200</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,19 +1776,22 @@
         <v>163680</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1786,10 +1802,10 @@
         <v>163680</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,10 +1816,10 @@
         <v>165320</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,13 +1830,16 @@
         <v>167320</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1831,10 +1850,10 @@
         <v>168320</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1845,10 +1864,10 @@
         <v>170320</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,13 +1878,16 @@
         <v>173320</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1876,10 +1898,10 @@
         <v>176320</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,13 +1912,16 @@
         <v>177320</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,10 +1932,10 @@
         <v>178320</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,10 +1946,10 @@
         <v>180320</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,10 +1960,10 @@
         <v>182320</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1949,10 +1974,10 @@
         <v>191320</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1963,19 +1988,22 @@
         <v>194320</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,10 +2014,10 @@
         <v>202840</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,10 +2028,10 @@
         <v>208200</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2014,10 +2042,10 @@
         <v>212820</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,19 +2056,22 @@
         <v>213820</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2051,10 +2082,10 @@
         <v>228820</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,19 +2096,22 @@
         <v>233820</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E77" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,10 +2122,10 @@
         <v>234820</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,10 +2136,10 @@
         <v>236820</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,16 +2150,19 @@
         <v>241820</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E80" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,13 +2173,16 @@
         <v>242820</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,10 +2193,10 @@
         <v>246820</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,10 +2207,10 @@
         <v>256820</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2181,16 +2221,19 @@
         <v>259820</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2201,10 +2244,10 @@
         <v>266820</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,10 +2258,13 @@
         <v>270820</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2229,10 +2275,10 @@
         <v>271820</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2243,10 +2289,10 @@
         <v>274820</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2257,10 +2303,10 @@
         <v>275820</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,10 +2317,10 @@
         <v>282820</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2285,16 +2331,19 @@
         <v>287820</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,13 +2354,16 @@
         <v>290820</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,10 +2374,10 @@
         <v>292820</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,13 +2388,16 @@
         <v>305820</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,13 +2408,16 @@
         <v>307820</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,10 +2428,10 @@
         <v>309820</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,10 +2442,10 @@
         <v>314820</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,13 +2456,16 @@
         <v>316820</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,10 +2476,10 @@
         <v>318820</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2429,10 +2490,10 @@
         <v>320820</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,10 +2504,10 @@
         <v>325320</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2457,10 +2518,10 @@
         <v>330320</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,10 +2532,10 @@
         <v>334320</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,16 +2546,19 @@
         <v>337320</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,16 +2569,19 @@
         <v>341320</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,10 +2592,10 @@
         <v>344320</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2539,10 +2606,10 @@
         <v>348320</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,10 +2620,10 @@
         <v>350320</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2567,10 +2634,10 @@
         <v>351920</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,19 +2648,22 @@
         <v>355020</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,10 +2674,10 @@
         <v>366320</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2618,13 +2688,16 @@
         <v>369320</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,10 +2708,10 @@
         <v>371320</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2722,10 @@
         <v>374320</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,10 +2736,10 @@
         <v>376320</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,19 +2750,22 @@
         <v>383320</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,10 +2776,10 @@
         <v>385320</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2714,19 +2790,22 @@
         <v>390320</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2737,13 +2816,16 @@
         <v>396320</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,10 +2836,10 @@
         <v>400320</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2768,10 +2850,10 @@
         <v>401320</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,10 +2864,10 @@
         <v>402320</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,16 +2878,19 @@
         <v>407320</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>9</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2816,16 +2901,19 @@
         <v>411320</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2836,13 +2924,16 @@
         <v>414320</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,13 +2944,16 @@
         <v>417320</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2964,10 @@
         <v>418320</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2884,10 +2978,10 @@
         <v>419320</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2898,13 +2992,16 @@
         <v>421320</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,13 +3012,16 @@
         <v>424320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,10 +3032,10 @@
         <v>427320</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,10 +3046,10 @@
         <v>429320</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2960,10 +3060,10 @@
         <v>430320</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2974,10 +3074,10 @@
         <v>432320</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,16 +3088,19 @@
         <v>436320</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,16 +3111,19 @@
         <v>440320</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,13 +3134,13 @@
         <v>442320</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,10 +3151,10 @@
         <v>443320</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,10 +3165,10 @@
         <v>445320</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,19 +3179,22 @@
         <v>448320</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E140" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3096,13 +3205,16 @@
         <v>455320</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,13 +3225,13 @@
         <v>458320</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3130,10 +3242,10 @@
         <v>460320</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3144,10 +3256,10 @@
         <v>461320</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,16 +3270,19 @@
         <v>466320</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>11</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,13 +3293,16 @@
         <v>470320</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3195,13 +3313,16 @@
         <v>473320</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,13 +3333,16 @@
         <v>475320</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,10 +3353,10 @@
         <v>478320</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,16 +3367,19 @@
         <v>481320</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3263,10 +3390,10 @@
         <v>483320</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,19 +3404,22 @@
         <v>486320</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E152" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3300,16 +3430,19 @@
         <v>489320</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3453,10 @@
         <v>493320</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,16 +3467,19 @@
         <v>500320</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E155" s="2" t="n">
         <v>13</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,10 +3490,10 @@
         <v>503320</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3368,10 +3504,10 @@
         <v>508320</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,10 +3518,10 @@
         <v>511320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3396,19 +3532,22 @@
         <v>519320</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E159" s="2" t="n">
         <v>14</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,10 +3558,10 @@
         <v>522320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,10 +3572,10 @@
         <v>523320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,10 +3586,10 @@
         <v>525320</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,16 +3600,19 @@
         <v>529320</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3481,13 +3623,16 @@
         <v>532320</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,13 +3643,16 @@
         <v>533320</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3515,10 +3663,10 @@
         <v>534320</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3529,13 +3677,16 @@
         <v>535320</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3546,13 +3697,13 @@
         <v>542320</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,10 +3714,10 @@
         <v>545320</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3577,10 +3728,10 @@
         <v>548320</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,10 +3742,10 @@
         <v>550320</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,10 +3756,10 @@
         <v>552320</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3619,10 +3770,10 @@
         <v>554320</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,16 +3784,19 @@
         <v>556320</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E174" s="2" t="n">
         <v>15</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,10 +3807,10 @@
         <v>561320</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,13 +3821,16 @@
         <v>563320</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,10 +3841,10 @@
         <v>566320</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3698,13 +3855,16 @@
         <v>571320</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3715,16 +3875,19 @@
         <v>571320</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,10 +3898,10 @@
         <v>578320</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,10 +3912,10 @@
         <v>580320</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3763,10 +3926,10 @@
         <v>581320</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3777,10 +3940,10 @@
         <v>582320</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,10 +3954,10 @@
         <v>590320</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,19 +3968,22 @@
         <v>592320</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>16</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,13 +3994,16 @@
         <v>595320</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,13 +4014,16 @@
         <v>596320</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,13 +4034,16 @@
         <v>599320</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +4054,10 @@
         <v>603320</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,10 +4068,10 @@
         <v>607320</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,10 +4082,10 @@
         <v>609320</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,10 +4096,10 @@
         <v>611320</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3935,16 +4110,19 @@
         <v>617320</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E193" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,13 +4133,16 @@
         <v>619320</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,16 +4153,19 @@
         <v>626320</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,13 +4176,16 @@
         <v>630320</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4009,16 +4196,19 @@
         <v>633320</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,13 +4219,16 @@
         <v>635320</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4046,19 +4239,22 @@
         <v>640320</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E199" s="2" t="n">
         <v>18</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,13 +4265,16 @@
         <v>653320</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4086,13 +4285,16 @@
         <v>656320</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4103,10 +4305,10 @@
         <v>659320</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,16 +4319,19 @@
         <v>663320</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E203" s="2" t="n">
         <v>19</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4137,13 +4342,13 @@
         <v>666320</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4154,10 +4359,10 @@
         <v>667320</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,13 +4373,13 @@
         <v>669320</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4185,10 +4390,10 @@
         <v>676320</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4199,16 +4404,19 @@
         <v>680320</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4219,13 +4427,13 @@
         <v>686320</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4236,10 +4444,10 @@
         <v>690320</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,13 +4458,16 @@
         <v>692320</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,10 +4478,10 @@
         <v>694320</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4281,10 +4492,10 @@
         <v>698320</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,10 +4506,10 @@
         <v>700320</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4309,10 +4520,13 @@
         <v>703320</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4323,10 +4537,10 @@
         <v>705320</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,10 +4551,10 @@
         <v>707320</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,10 +4565,10 @@
         <v>709320</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4579,10 @@
         <v>712320</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,10 +4593,10 @@
         <v>715320</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4393,10 +4607,13 @@
         <v>716320</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,10 +4624,10 @@
         <v>720320</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,10 +4638,13 @@
         <v>721320</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game76.xlsx
+++ b/data/expt_2/raw_transcripts/game76.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="209">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t xml:space="preserve">A diamond.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a diamond</t>
   </si>
   <si>
     <t xml:space="preserve">Which one is it?</t>
@@ -732,7 +729,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,10 +743,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -945,9 +938,9 @@
   <dimension ref="A1:I223"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="C159" activeCellId="0" sqref="C159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2263,7 +2256,7 @@
       <c r="D86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2909,9 +2902,7 @@
       <c r="F124" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H124" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="H124" s="2"/>
       <c r="I124" s="3" t="s">
         <v>68</v>
       </c>
@@ -2944,7 +2935,7 @@
         <v>417320</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>12</v>
@@ -2978,7 +2969,7 @@
         <v>419320</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>10</v>
@@ -2992,7 +2983,7 @@
         <v>421320</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>12</v>
@@ -3012,7 +3003,7 @@
         <v>424320</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>12</v>
@@ -3032,7 +3023,7 @@
         <v>427320</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>10</v>
@@ -3046,7 +3037,7 @@
         <v>429320</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>10</v>
@@ -3060,7 +3051,7 @@
         <v>430320</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>10</v>
@@ -3074,7 +3065,7 @@
         <v>432320</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>10</v>
@@ -3088,7 +3079,7 @@
         <v>436320</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>76</v>
@@ -3096,9 +3087,7 @@
       <c r="F135" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="H135" s="3"/>
       <c r="I135" s="3" t="s">
         <v>68</v>
       </c>
@@ -3111,7 +3100,7 @@
         <v>440320</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>76</v>
@@ -3120,7 +3109,7 @@
         <v>66</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>68</v>
@@ -3205,7 +3194,7 @@
         <v>455320</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>12</v>
@@ -3270,7 +3259,7 @@
         <v>466320</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>12</v>
@@ -3293,7 +3282,7 @@
         <v>470320</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -3313,7 +3302,7 @@
         <v>473320</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -3333,7 +3322,7 @@
         <v>475320</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>12</v>
@@ -3353,7 +3342,7 @@
         <v>478320</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>10</v>
@@ -3367,7 +3356,7 @@
         <v>481320</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>76</v>
@@ -3404,7 +3393,7 @@
         <v>486320</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>12</v>
@@ -3416,7 +3405,7 @@
         <v>66</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>68</v>
@@ -3430,7 +3419,7 @@
         <v>489320</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>12</v>
@@ -3439,7 +3428,7 @@
         <v>66</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I153" s="3" t="s">
         <v>68</v>
@@ -3467,7 +3456,7 @@
         <v>500320</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -3490,7 +3479,7 @@
         <v>503320</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3504,7 +3493,7 @@
         <v>508320</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>10</v>
@@ -3518,7 +3507,7 @@
         <v>511320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>10</v>
@@ -3532,7 +3521,7 @@
         <v>519320</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>12</v>
@@ -3543,9 +3532,7 @@
       <c r="F159" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H159" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="H159" s="2"/>
       <c r="I159" s="3" t="s">
         <v>68</v>
       </c>
@@ -3558,7 +3545,7 @@
         <v>522320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>10</v>
@@ -3572,7 +3559,7 @@
         <v>523320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3586,7 +3573,7 @@
         <v>525320</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>10</v>
@@ -3600,7 +3587,7 @@
         <v>529320</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>12</v>
@@ -3609,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I163" s="3" t="s">
         <v>68</v>
@@ -3697,7 +3684,7 @@
         <v>542320</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>76</v>
@@ -3714,7 +3701,7 @@
         <v>545320</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>10</v>
@@ -3728,7 +3715,7 @@
         <v>548320</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>10</v>
@@ -3756,7 +3743,7 @@
         <v>552320</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>10</v>
@@ -3784,7 +3771,7 @@
         <v>556320</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>12</v>
@@ -3807,7 +3794,7 @@
         <v>561320</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>10</v>
@@ -3821,7 +3808,7 @@
         <v>563320</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>12</v>
@@ -3841,7 +3828,7 @@
         <v>566320</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>10</v>
@@ -3855,7 +3842,7 @@
         <v>571320</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>12</v>
@@ -3898,7 +3885,7 @@
         <v>578320</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
@@ -3912,7 +3899,7 @@
         <v>580320</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>10</v>
@@ -3954,7 +3941,7 @@
         <v>590320</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>10</v>
@@ -3968,7 +3955,7 @@
         <v>592320</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>12</v>
@@ -3980,7 +3967,7 @@
         <v>66</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I185" s="3" t="s">
         <v>68</v>
@@ -3994,7 +3981,7 @@
         <v>595320</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>76</v>
@@ -4034,7 +4021,7 @@
         <v>599320</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>12</v>
@@ -4068,7 +4055,7 @@
         <v>607320</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>10</v>
@@ -4082,7 +4069,7 @@
         <v>609320</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>10</v>
@@ -4110,7 +4097,7 @@
         <v>617320</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>12</v>
@@ -4133,7 +4120,7 @@
         <v>619320</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>12</v>
@@ -4153,7 +4140,7 @@
         <v>626320</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>76</v>
@@ -4162,7 +4149,7 @@
         <v>66</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I195" s="3" t="s">
         <v>68</v>
@@ -4176,7 +4163,7 @@
         <v>630320</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>12</v>
@@ -4196,7 +4183,7 @@
         <v>633320</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>12</v>
@@ -4205,7 +4192,7 @@
         <v>77</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I197" s="3" t="s">
         <v>68</v>
@@ -4265,7 +4252,7 @@
         <v>653320</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>76</v>
@@ -4285,7 +4272,7 @@
         <v>656320</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>12</v>
@@ -4305,7 +4292,7 @@
         <v>659320</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>10</v>
@@ -4319,7 +4306,7 @@
         <v>663320</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>12</v>
@@ -4342,7 +4329,7 @@
         <v>666320</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>12</v>
@@ -4359,7 +4346,7 @@
         <v>667320</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>10</v>
@@ -4373,7 +4360,7 @@
         <v>669320</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>12</v>
@@ -4390,7 +4377,7 @@
         <v>676320</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>10</v>
@@ -4404,7 +4391,7 @@
         <v>680320</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>76</v>
@@ -4413,7 +4400,7 @@
         <v>66</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I208" s="3" t="s">
         <v>68</v>
@@ -4427,7 +4414,7 @@
         <v>686320</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>12</v>
@@ -4444,7 +4431,7 @@
         <v>690320</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>10</v>
@@ -4478,7 +4465,7 @@
         <v>694320</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>10</v>
@@ -4492,7 +4479,7 @@
         <v>698320</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>10</v>
@@ -4506,7 +4493,7 @@
         <v>700320</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>10</v>
@@ -4520,7 +4507,7 @@
         <v>703320</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>76</v>
@@ -4537,7 +4524,7 @@
         <v>705320</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>10</v>
@@ -4551,7 +4538,7 @@
         <v>707320</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
@@ -4565,7 +4552,7 @@
         <v>709320</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>10</v>
@@ -4579,7 +4566,7 @@
         <v>712320</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>10</v>
@@ -4593,7 +4580,7 @@
         <v>715320</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>10</v>
@@ -4607,7 +4594,7 @@
         <v>716320</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>12</v>
@@ -4624,7 +4611,7 @@
         <v>720320</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -4638,7 +4625,7 @@
         <v>721320</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>12</v>
